--- a/data/scored_results.xlsx
+++ b/data/scored_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="378">
   <si>
     <t>source</t>
   </si>
@@ -91,174 +91,174 @@
     <t>doi_confirmed</t>
   </si>
   <si>
+    <t>WoS</t>
+  </si>
+  <si>
     <t>scopus</t>
   </si>
   <si>
-    <t>WoS</t>
+    <t>Reinforcement learning for control of valves</t>
+  </si>
+  <si>
+    <t>Fault Detection of Flow Control Valves Using Online LightGBM and STL Decomposition</t>
   </si>
   <si>
     <t>Implementation of ANN-Based Auto-Adjustable for a Pneumatic Servo System Embedded on FPGA</t>
   </si>
   <si>
-    <t>Reinforcement learning for control of valves</t>
+    <t>Control valve stiction detection using Markov transition field and deep convolutional neural network</t>
+  </si>
+  <si>
+    <t>Automatic oscillations detection and classification of control loop using generalized machine learning algorithms</t>
   </si>
   <si>
     <t>Stiction-model-based re-tuning of PI controller for industrial process control loops</t>
   </si>
   <si>
-    <t>Automatic oscillations detection and classification of control loop using generalized machine learning algorithms</t>
-  </si>
-  <si>
-    <t>Control valve stiction detection using Markov transition field and deep convolutional neural network</t>
+    <t>Implementing and evaluating the quality 4.0 PMQ framework for process monitoring in automotive manufacturing</t>
+  </si>
+  <si>
+    <t>Advanced Study: Improving the Quality of Cooling Water Towers’ Conductivity Using a Fuzzy PID Control Model</t>
+  </si>
+  <si>
+    <t>Parameters’ Optimization in Compressed Air Pressure Process Using Hybrid Fmin–GA-Based PID and Fractional Order Internal Model Controller</t>
   </si>
   <si>
     <t>Comparative Analysis of PID and Robust IMC Control in Cascaded Processes With Time-Delay</t>
   </si>
   <si>
-    <t>Parameters’ Optimization in Compressed Air Pressure Process Using Hybrid Fmin–GA-Based PID and Fractional Order Internal Model Controller</t>
+    <t>Nonlinear optimal control for robotic exoskeletons with electropneumatic actuators</t>
+  </si>
+  <si>
+    <t>Modeling, optimization and control of a ceramic tunnel kiln for consistent product quality under changing production demands</t>
+  </si>
+  <si>
+    <t>Neuro-Fuzzy System for Compensating Slow Disturbances in Adaptive Mold Level Control</t>
+  </si>
+  <si>
+    <t>Precise Burden Charging Operation During Iron-Making Process in Blast Furnace</t>
+  </si>
+  <si>
+    <t>Internal Model Control for Onboard Methanol-Reforming Hydrogen Production Systems</t>
+  </si>
+  <si>
+    <t>Intelligent Control Valve Stiction Diagnosis Approach</t>
+  </si>
+  <si>
+    <t>Industrial Implementation of State Dependent Parameter PID plus Control for Nonlinear Time Delayed Bitumen Tank System</t>
+  </si>
+  <si>
+    <t>Performance Comparison of Control Strategies for Plant-Wide Produced Water Treatment</t>
+  </si>
+  <si>
+    <t>A Literature Review of the Positive Displacement Compressor: Current Challenges and Future Opportunities</t>
+  </si>
+  <si>
+    <t>Predictive control scheme by integrating event-triggered mechanism and disturbance observer under actuator failure and sensor fault</t>
+  </si>
+  <si>
+    <t>Exploring the Application of Large Language Models Based AI Agents in Leakage Detection of Natural Gas Valve Chambers</t>
+  </si>
+  <si>
+    <t>Research of Pneumatic Polishing Force Control System Based on High Speed On/off with PWM Controlling</t>
+  </si>
+  <si>
+    <t>Residual Life Prediction of Pneumatic Control Valves Based on Trans-TCN-GRU Modeling</t>
+  </si>
+  <si>
+    <t>Revolutionizing Tire Quality Control: AI's Impact on Research, Development, and Real-Life Applications</t>
+  </si>
+  <si>
+    <t>Self-adapting anti-surge intelligence control and numerical simulation of centrifugal compressors based on RBF neural network</t>
+  </si>
+  <si>
+    <t>Stiction compensation for low-cost electric valves</t>
+  </si>
+  <si>
+    <t>Stiction detection and recurrence analysis for control valves by phase space reconstruction method</t>
+  </si>
+  <si>
+    <t>Surge protection of centrifugal compressors using advanced anti-surge control system</t>
+  </si>
+  <si>
+    <t>Tire Bubble Defect Detection Using Incremental Learning</t>
+  </si>
+  <si>
+    <t>Real-Time Pipe and Valve Characterisation and Mapping for Autonomous Underwater Intervention Tasks</t>
+  </si>
+  <si>
+    <t>Experimental analysis of the performance of the air supply system in a 120 kW polymer electrolyte membrane fuel cell system</t>
+  </si>
+  <si>
+    <t>Explainable attention-based fused convolutional neural network (XAFCNN) for tire defect detection: an industrial case study</t>
+  </si>
+  <si>
+    <t>A Method for Detecting Key Points of Transferring Barrel Valve by Integrating Keypoint R-CNN and MobileNetV3</t>
+  </si>
+  <si>
+    <t>A novel modelling of glue allowance prediction for time-pressure dispensing system based on gated recurrent unit and fully connected neural network</t>
+  </si>
+  <si>
+    <t>A one-class support vector machine for detecting valve stiction</t>
+  </si>
+  <si>
+    <t>A Performance Prediction Method for a High-Precision Servo Valve Supported by Digital Twin Assembly-Commissioning</t>
+  </si>
+  <si>
+    <t>A systematic approach for data generation for intelligent fault detection and diagnosis in District Heating</t>
+  </si>
+  <si>
+    <t>An approach for stiction compensation in industrial process control valves</t>
+  </si>
+  <si>
+    <t>Anomaly Segmentation Based on Depth Image for Quality Inspection Processes in Tire Manufacturing</t>
+  </si>
+  <si>
+    <t>APAH: An autonomous IoT driven real-time monitoring system for Industrial wastewater</t>
+  </si>
+  <si>
+    <t>Applicant hierarchical fuzzy controller for concentration control of simulated moving bed</t>
+  </si>
+  <si>
+    <t>Bridging the performance gap between passive and autonomous inflow control devices with a hybrid dynamic optimization technique integrating machine learning and global sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Communicating the Automatic Control Principles in Smart Agriculture Education: The Interactive Water Pump Example</t>
+  </si>
+  <si>
+    <t>Complex Dynamics and Intelligent Control: Advances, Challenges, and Applications in Mining and Industrial Processes</t>
+  </si>
+  <si>
+    <t>Utilizing Selected Machine Learning Methods for Conicity Prediction in the Process of Producing Radial Tires for Passenger Cars</t>
+  </si>
+  <si>
+    <t>Design of FOPID Controller for Pneumatic Control Valve Based on Improved BBO Algorithm</t>
+  </si>
+  <si>
+    <t>Detecting Semantic Attack in SCADA System: A Behavioral Model Based on Secondary Labeling of States-Duration Evolution Graph</t>
+  </si>
+  <si>
+    <t>Developing a novel Gaussian process model predictive controller to improve the energy efficiency and tracking accuracy of the pressure servo control system</t>
+  </si>
+  <si>
+    <t>Development of Pneumatic Force-Controlled Actuator for Automatic Robot Polishing Complex Curved Plexiglass Parts</t>
+  </si>
+  <si>
+    <t>Development of rotary straw burying and returning navigation system based on variable-gain single-neuron PID; [基于变增益单神经元PID的秸秆旋埋还田导航系统研制]</t>
+  </si>
+  <si>
+    <t>Dynamic Prediction of Performance Degradation Characteristics of Direct-Drive Electro-Hydraulic Servo Valves</t>
   </si>
   <si>
     <t>Enhanced classification of hydraulic testing of directional control valves with synthetic data generation</t>
   </si>
   <si>
-    <t>Implementing and evaluating the quality 4.0 PMQ framework for process monitoring in automotive manufacturing</t>
-  </si>
-  <si>
-    <t>Advanced Study: Improving the Quality of Cooling Water Towers’ Conductivity Using a Fuzzy PID Control Model</t>
-  </si>
-  <si>
-    <t>Development of rotary straw burying and returning navigation system based on variable-gain single-neuron PID; [基于变增益单神经元PID的秸秆旋埋还田导航系统研制]</t>
-  </si>
-  <si>
-    <t>Internal Model Control for Onboard Methanol-Reforming Hydrogen Production Systems</t>
-  </si>
-  <si>
-    <t>Performance Comparison of Control Strategies for Plant-Wide Produced Water Treatment</t>
-  </si>
-  <si>
-    <t>Neuro-Fuzzy System for Compensating Slow Disturbances in Adaptive Mold Level Control</t>
-  </si>
-  <si>
-    <t>Intelligent Control Valve Stiction Diagnosis Approach</t>
-  </si>
-  <si>
-    <t>Industrial Implementation of State Dependent Parameter PID plus Control for Nonlinear Time Delayed Bitumen Tank System</t>
-  </si>
-  <si>
-    <t>Nonlinear optimal control for robotic exoskeletons with electropneumatic actuators</t>
-  </si>
-  <si>
-    <t>Modeling, optimization and control of a ceramic tunnel kiln for consistent product quality under changing production demands</t>
-  </si>
-  <si>
-    <t>A Literature Review of the Positive Displacement Compressor: Current Challenges and Future Opportunities</t>
-  </si>
-  <si>
-    <t>Precise Burden Charging Operation During Iron-Making Process in Blast Furnace</t>
-  </si>
-  <si>
-    <t>Predictive control scheme by integrating event-triggered mechanism and disturbance observer under actuator failure and sensor fault</t>
-  </si>
-  <si>
-    <t>Fault Detection of Flow Control Valves Using Online LightGBM and STL Decomposition</t>
-  </si>
-  <si>
-    <t>Research of Pneumatic Polishing Force Control System Based on High Speed On/off with PWM Controlling</t>
-  </si>
-  <si>
-    <t>Residual Life Prediction of Pneumatic Control Valves Based on Trans-TCN-GRU Modeling</t>
-  </si>
-  <si>
-    <t>Revolutionizing Tire Quality Control: AI's Impact on Research, Development, and Real-Life Applications</t>
-  </si>
-  <si>
-    <t>Self-adapting anti-surge intelligence control and numerical simulation of centrifugal compressors based on RBF neural network</t>
-  </si>
-  <si>
-    <t>Stiction compensation for low-cost electric valves</t>
-  </si>
-  <si>
-    <t>Stiction detection and recurrence analysis for control valves by phase space reconstruction method</t>
-  </si>
-  <si>
-    <t>Surge protection of centrifugal compressors using advanced anti-surge control system</t>
-  </si>
-  <si>
-    <t>Tire Bubble Defect Detection Using Incremental Learning</t>
-  </si>
-  <si>
-    <t>Real-Time Pipe and Valve Characterisation and Mapping for Autonomous Underwater Intervention Tasks</t>
-  </si>
-  <si>
-    <t>Experimental analysis of the performance of the air supply system in a 120 kW polymer electrolyte membrane fuel cell system</t>
-  </si>
-  <si>
-    <t>Exploring the Application of Large Language Models Based AI Agents in Leakage Detection of Natural Gas Valve Chambers</t>
-  </si>
-  <si>
-    <t>Complex Dynamics and Intelligent Control: Advances, Challenges, and Applications in Mining and Industrial Processes</t>
-  </si>
-  <si>
-    <t>A novel modelling of glue allowance prediction for time-pressure dispensing system based on gated recurrent unit and fully connected neural network</t>
-  </si>
-  <si>
-    <t>A one-class support vector machine for detecting valve stiction</t>
-  </si>
-  <si>
-    <t>A Performance Prediction Method for a High-Precision Servo Valve Supported by Digital Twin Assembly-Commissioning</t>
-  </si>
-  <si>
-    <t>A systematic approach for data generation for intelligent fault detection and diagnosis in District Heating</t>
-  </si>
-  <si>
-    <t>An approach for stiction compensation in industrial process control valves</t>
-  </si>
-  <si>
-    <t>Anomaly Segmentation Based on Depth Image for Quality Inspection Processes in Tire Manufacturing</t>
-  </si>
-  <si>
-    <t>APAH: An autonomous IoT driven real-time monitoring system for Industrial wastewater</t>
-  </si>
-  <si>
-    <t>Applicant hierarchical fuzzy controller for concentration control of simulated moving bed</t>
-  </si>
-  <si>
-    <t>Bridging the performance gap between passive and autonomous inflow control devices with a hybrid dynamic optimization technique integrating machine learning and global sensitivity analysis</t>
-  </si>
-  <si>
-    <t>Communicating the Automatic Control Principles in Smart Agriculture Education: The Interactive Water Pump Example</t>
-  </si>
-  <si>
-    <t>Utilizing Selected Machine Learning Methods for Conicity Prediction in the Process of Producing Radial Tires for Passenger Cars</t>
-  </si>
-  <si>
-    <t>Explainable attention-based fused convolutional neural network (XAFCNN) for tire defect detection: an industrial case study</t>
-  </si>
-  <si>
-    <t>Design of FOPID Controller for Pneumatic Control Valve Based on Improved BBO Algorithm</t>
-  </si>
-  <si>
-    <t>Detecting Semantic Attack in SCADA System: A Behavioral Model Based on Secondary Labeling of States-Duration Evolution Graph</t>
-  </si>
-  <si>
-    <t>Developing a novel Gaussian process model predictive controller to improve the energy efficiency and tracking accuracy of the pressure servo control system</t>
-  </si>
-  <si>
-    <t>Development of Pneumatic Force-Controlled Actuator for Automatic Robot Polishing Complex Curved Plexiglass Parts</t>
-  </si>
-  <si>
-    <t>Dynamic Prediction of Performance Degradation Characteristics of Direct-Drive Electro-Hydraulic Servo Valves</t>
-  </si>
-  <si>
     <t>Enhancing metal additive manufacturing training with the advanced vision language model: A pathway to immersive augmented reality training for non-experts</t>
   </si>
   <si>
     <t>Event-driven enabled regression aided multi-loop control for SEC minimisation in SWRO desalination considering salinity variation</t>
   </si>
   <si>
-    <t>A Method for Detecting Key Points of Transferring Barrel Valve by Integrating Keypoint R-CNN and MobileNetV3</t>
-  </si>
-  <si>
     <t>NEW MCA GENERATOR</t>
   </si>
   <si>
@@ -268,201 +268,201 @@
     <t>Design and Realization of Fully Automatic Pump Performance Test System</t>
   </si>
   <si>
+    <t>flow control valve; LightGBM; online fault detection; residual analysis; STL decomposition</t>
+  </si>
+  <si>
     <t>control; embedded; FPGA; neural network; neuro-PID; pneumatic actuators; robot arm</t>
   </si>
   <si>
+    <t>convolutional neural network; machine learning; Markov transition field; stiction detection; transfer learning</t>
+  </si>
+  <si>
+    <t>control valve; machine learning; model free; Oscillation detection; stiction</t>
+  </si>
+  <si>
     <t>control valves; Optimization; PID control; process control; process models</t>
   </si>
   <si>
-    <t>control valve; machine learning; model free; Oscillation detection; stiction</t>
-  </si>
-  <si>
-    <t>convolutional neural network; machine learning; Markov transition field; stiction detection; transfer learning</t>
+    <t>Industry 4.0; Machine learning; Manufacturing process optimization; Predictive maintenance; Process monitoring for quality framework; Quality 4.0</t>
+  </si>
+  <si>
+    <t>cooling water towers; electrical conductivity; fuzzy PID control; motor control; PID control</t>
+  </si>
+  <si>
+    <t>Compressed air pressure system; Genetic algorithm; IMC and MPC; Nonlinear system; PID controller</t>
   </si>
   <si>
     <t>delay systems; internal model control; Process control; proportional-integral-derivative (PID) tuning; robustness; sliding mode control</t>
   </si>
   <si>
-    <t>Compressed air pressure system; Genetic algorithm; IMC and MPC; Nonlinear system; PID controller</t>
+    <t>Differential flatness properties; Electropneumatic robots; Global stability; Jacobian matrices; Nonlinear H-infinity control; Riccati equation; Robotic exoskeletons; Taylor series expansion</t>
+  </si>
+  <si>
+    <t>Ceramics; Feedback control; Furnace; Mathematical modelling; Optimization; Tunnel kiln</t>
+  </si>
+  <si>
+    <t>stiction detection; stiction quantification; Valve nonlinearity</t>
+  </si>
+  <si>
+    <t>AI agent; large language model; leakage detection; natural gas valve chamber</t>
+  </si>
+  <si>
+    <t>Control valves; Nonlinear control; Process control; Stiction</t>
+  </si>
+  <si>
+    <t>Control loop; Phase space reconstruction; Recurrence analysis; Valve stiction</t>
+  </si>
+  <si>
+    <t>Control loop performance monitoring; Control valve; Feature extraction; Linear discriminant analysis; Principal component analysis; Scikit-learn; Stiction; Support vector machine; Time series; Tsfresh</t>
+  </si>
+  <si>
+    <t>ESP8266; Internet of Things; Monitoring; pH; Wastewater; Water quality</t>
+  </si>
+  <si>
+    <t>chaotic dynamics; energy transition; industrial cybersecurity; machine learning; magnetohydrodynamics; Mining 4.0; robust control; stochastic modeling</t>
+  </si>
+  <si>
+    <t>Energy efficiency; Gaussian process; Model predictive control; Pneumatic system; Pressure tracking</t>
+  </si>
+  <si>
+    <t>Agricultural machinery; Controller; Dual-antenna RTK-GNSS; Electronic-control proportional hydraulic system; Navigation; Rotary burying and returning; Straw; Variable-gain single-neuron PID</t>
   </si>
   <si>
     <t>Conditional tabular generative adversarial networks; Machine learning; Predictive quality; Quality control; Semi-supervised learning; Tabular variational autoencoder</t>
   </si>
   <si>
-    <t>Industry 4.0; Machine learning; Manufacturing process optimization; Predictive maintenance; Process monitoring for quality framework; Quality 4.0</t>
-  </si>
-  <si>
-    <t>cooling water towers; electrical conductivity; fuzzy PID control; motor control; PID control</t>
-  </si>
-  <si>
-    <t>Agricultural machinery; Controller; Dual-antenna RTK-GNSS; Electronic-control proportional hydraulic system; Navigation; Rotary burying and returning; Straw; Variable-gain single-neuron PID</t>
-  </si>
-  <si>
-    <t>stiction detection; stiction quantification; Valve nonlinearity</t>
-  </si>
-  <si>
-    <t>Differential flatness properties; Electropneumatic robots; Global stability; Jacobian matrices; Nonlinear H-infinity control; Riccati equation; Robotic exoskeletons; Taylor series expansion</t>
-  </si>
-  <si>
-    <t>Ceramics; Feedback control; Furnace; Mathematical modelling; Optimization; Tunnel kiln</t>
-  </si>
-  <si>
-    <t>flow control valve; LightGBM; online fault detection; residual analysis; STL decomposition</t>
-  </si>
-  <si>
-    <t>Control valves; Nonlinear control; Process control; Stiction</t>
-  </si>
-  <si>
-    <t>Control loop; Phase space reconstruction; Recurrence analysis; Valve stiction</t>
-  </si>
-  <si>
-    <t>AI agent; large language model; leakage detection; natural gas valve chamber</t>
-  </si>
-  <si>
-    <t>chaotic dynamics; energy transition; industrial cybersecurity; machine learning; magnetohydrodynamics; Mining 4.0; robust control; stochastic modeling</t>
-  </si>
-  <si>
-    <t>Control loop performance monitoring; Control valve; Feature extraction; Linear discriminant analysis; Principal component analysis; Scikit-learn; Stiction; Support vector machine; Time series; Tsfresh</t>
-  </si>
-  <si>
-    <t>ESP8266; Internet of Things; Monitoring; pH; Wastewater; Water quality</t>
-  </si>
-  <si>
-    <t>Energy efficiency; Gaussian process; Model predictive control; Pneumatic system; Pressure tracking</t>
-  </si>
-  <si>
     <t>Biocide program; MCA program; Monochloramine (MCA); New MCA generator; Paper machine microbicide program</t>
   </si>
   <si>
     <t>Automation; Host computer; Net; Performance measurement; Pumps; Test systems</t>
   </si>
   <si>
+    <t>MACHINE LEARNING WITH APPLICATIONS</t>
+  </si>
+  <si>
+    <t>Actuators</t>
+  </si>
+  <si>
     <t>Micromachines</t>
   </si>
   <si>
-    <t>MACHINE LEARNING WITH APPLICATIONS</t>
+    <t>Canadian Journal of Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Transactions of the Institute of Measurement and Control</t>
   </si>
   <si>
     <t>SICE Journal of Control, Measurement, and System Integration</t>
   </si>
   <si>
-    <t>Transactions of the Institute of Measurement and Control</t>
-  </si>
-  <si>
-    <t>Canadian Journal of Chemical Engineering</t>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>IETE Journal of Research</t>
   </si>
   <si>
     <t>IEEE Access</t>
   </si>
   <si>
-    <t>IETE Journal of Research</t>
+    <t>Robotic Intelligence and Automation</t>
+  </si>
+  <si>
+    <t>Computers and Chemical Engineering</t>
+  </si>
+  <si>
+    <t>METALS</t>
+  </si>
+  <si>
+    <t>IEEE ACCESS</t>
+  </si>
+  <si>
+    <t>ENERGIES</t>
+  </si>
+  <si>
+    <t>IRANIAN JOURNAL OF SCIENCE AND TECHNOLOGY-TRANSACTIONS OF ELECTRICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF THE INSTITUTION OF MECHANICAL ENGINEERS PART I-JOURNAL OF SYSTEMS AND CONTROL ENGINEERING</t>
+  </si>
+  <si>
+    <t>Energies</t>
+  </si>
+  <si>
+    <t>ROBOTICS AND COMPUTER-INTEGRATED MANUFACTURING</t>
+  </si>
+  <si>
+    <t>APPLIED SCIENCES-BASEL</t>
+  </si>
+  <si>
+    <t>ENERGY REPORTS</t>
+  </si>
+  <si>
+    <t>Control Engineering Practice</t>
+  </si>
+  <si>
+    <t>Advanced Engineering Informatics</t>
+  </si>
+  <si>
+    <t>MEASUREMENT &amp; CONTROL</t>
+  </si>
+  <si>
+    <t>SENSORS</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF HYDROGEN ENERGY</t>
+  </si>
+  <si>
+    <t>ENGINEERING RESEARCH EXPRESS</t>
+  </si>
+  <si>
+    <t>ELECTRONICS</t>
+  </si>
+  <si>
+    <t>JOURNAL OF ADVANCED MECHANICAL DESIGN SYSTEMS AND MANUFACTURING</t>
+  </si>
+  <si>
+    <t>Digital Chemical Engineering</t>
+  </si>
+  <si>
+    <t>MACHINES</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>COMPUTERS &amp; CHEMICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC REPORTS</t>
+  </si>
+  <si>
+    <t>GEOENERGY SCIENCE AND ENGINEERING</t>
+  </si>
+  <si>
+    <t>ROBOTICS</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON NETWORK SCIENCE AND ENGINEERING</t>
+  </si>
+  <si>
+    <t>Journal of Cleaner Production</t>
+  </si>
+  <si>
+    <t>Nongye Gongcheng Xuebao/Transactions of the Chinese Society of Agricultural Engineering</t>
   </si>
   <si>
     <t>Production Engineering</t>
   </si>
   <si>
-    <t>Scientific Reports</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Nongye Gongcheng Xuebao/Transactions of the Chinese Society of Agricultural Engineering</t>
-  </si>
-  <si>
-    <t>ENERGIES</t>
-  </si>
-  <si>
-    <t>METALS</t>
-  </si>
-  <si>
-    <t>IRANIAN JOURNAL OF SCIENCE AND TECHNOLOGY-TRANSACTIONS OF ELECTRICAL ENGINEERING</t>
-  </si>
-  <si>
-    <t>Robotic Intelligence and Automation</t>
-  </si>
-  <si>
-    <t>Computers and Chemical Engineering</t>
-  </si>
-  <si>
-    <t>IEEE ACCESS</t>
-  </si>
-  <si>
-    <t>PROCEEDINGS OF THE INSTITUTION OF MECHANICAL ENGINEERS PART I-JOURNAL OF SYSTEMS AND CONTROL ENGINEERING</t>
-  </si>
-  <si>
-    <t>Actuators</t>
-  </si>
-  <si>
-    <t>ROBOTICS AND COMPUTER-INTEGRATED MANUFACTURING</t>
-  </si>
-  <si>
-    <t>APPLIED SCIENCES-BASEL</t>
-  </si>
-  <si>
-    <t>ENERGY REPORTS</t>
-  </si>
-  <si>
-    <t>Control Engineering Practice</t>
-  </si>
-  <si>
-    <t>Advanced Engineering Informatics</t>
-  </si>
-  <si>
-    <t>MEASUREMENT &amp; CONTROL</t>
-  </si>
-  <si>
-    <t>SENSORS</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL JOURNAL OF HYDROGEN ENERGY</t>
-  </si>
-  <si>
-    <t>Energies</t>
-  </si>
-  <si>
-    <t>JOURNAL OF ADVANCED MECHANICAL DESIGN SYSTEMS AND MANUFACTURING</t>
-  </si>
-  <si>
-    <t>Digital Chemical Engineering</t>
-  </si>
-  <si>
-    <t>MACHINES</t>
-  </si>
-  <si>
-    <t>ENERGY</t>
-  </si>
-  <si>
-    <t>COMPUTERS &amp; CHEMICAL ENGINEERING</t>
-  </si>
-  <si>
-    <t>SCIENTIFIC REPORTS</t>
-  </si>
-  <si>
-    <t>GEOENERGY SCIENCE AND ENGINEERING</t>
-  </si>
-  <si>
-    <t>ROBOTICS</t>
-  </si>
-  <si>
-    <t>ENGINEERING RESEARCH EXPRESS</t>
-  </si>
-  <si>
-    <t>IEEE TRANSACTIONS ON NETWORK SCIENCE AND ENGINEERING</t>
-  </si>
-  <si>
-    <t>Journal of Cleaner Production</t>
-  </si>
-  <si>
     <t>JOURNAL OF MANUFACTURING SYSTEMS</t>
   </si>
   <si>
     <t>ISA TRANSACTIONS</t>
   </si>
   <si>
-    <t>ELECTRONICS</t>
-  </si>
-  <si>
     <t>IPPTA: Quarterly Journal of Indian Pulp and Paper Technical Association</t>
   </si>
   <si>
@@ -472,336 +472,336 @@
     <t>International Journal of Engineering Research in Africa</t>
   </si>
   <si>
+    <t>10.1016/j.mlwa.2021.100030</t>
+  </si>
+  <si>
+    <t>10.3390/act13060222</t>
+  </si>
+  <si>
     <t>10.3390/mi13060890</t>
   </si>
   <si>
-    <t>10.1016/j.mlwa.2021.100030</t>
+    <t>10.1002/cjce.25054</t>
+  </si>
+  <si>
+    <t>10.1177/01423312221118129</t>
   </si>
   <si>
     <t>10.1080/18824889.2023.2295063</t>
   </si>
   <si>
-    <t>10.1177/01423312221118129</t>
-  </si>
-  <si>
-    <t>10.1002/cjce.25054</t>
+    <t>10.1038/s41598-025-10226-4</t>
+  </si>
+  <si>
+    <t>10.3390/math12203296</t>
+  </si>
+  <si>
+    <t>10.1080/03772063.2022.2139297</t>
   </si>
   <si>
     <t>10.1109/ACCESS.2024.3467922</t>
   </si>
   <si>
-    <t>10.1080/03772063.2022.2139297</t>
+    <t>10.1108/RIA-05-2023-0062</t>
+  </si>
+  <si>
+    <t>10.1016/j.compchemeng.2024.108812</t>
+  </si>
+  <si>
+    <t>10.3390/met11010056</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2021.3064885</t>
+  </si>
+  <si>
+    <t>10.3390/en18030476</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2025.3573646</t>
+  </si>
+  <si>
+    <t>10.1007/s40998-022-00488-3</t>
+  </si>
+  <si>
+    <t>10.3390/en15020418</t>
+  </si>
+  <si>
+    <t>10.3390/en16207035</t>
+  </si>
+  <si>
+    <t>10.1177/09596518231204725</t>
+  </si>
+  <si>
+    <t>10.3390/en17225633</t>
+  </si>
+  <si>
+    <t>10.1016/j.rcim.2021.102133</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2024.3513484</t>
+  </si>
+  <si>
+    <t>10.3390/app13148406</t>
+  </si>
+  <si>
+    <t>10.1016/j.egyr.2022.01.135</t>
+  </si>
+  <si>
+    <t>10.1016/j.conengprac.2023.105482</t>
+  </si>
+  <si>
+    <t>10.1016/j.aei.2024.102949</t>
+  </si>
+  <si>
+    <t>10.1177/0020294020983372</t>
+  </si>
+  <si>
+    <t>10.3390/app122312186</t>
+  </si>
+  <si>
+    <t>10.3390/s22218141</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijhydene.2022.04.189</t>
+  </si>
+  <si>
+    <t>10.1088/2631-8695/ad23c8</t>
+  </si>
+  <si>
+    <t>10.3390/electronics12204306</t>
+  </si>
+  <si>
+    <t>10.1299/jamdsm.2023jamdsm0070</t>
+  </si>
+  <si>
+    <t>10.1016/j.dche.2023.100116</t>
+  </si>
+  <si>
+    <t>10.3390/machines10010011</t>
+  </si>
+  <si>
+    <t>10.1016/j.energy.2024.132711</t>
+  </si>
+  <si>
+    <t>10.1016/j.compchemeng.2021.107641</t>
+  </si>
+  <si>
+    <t>10.3390/app112110376</t>
+  </si>
+  <si>
+    <t>10.1016/j.dche.2025.100217</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-021-97134-5</t>
+  </si>
+  <si>
+    <t>10.1016/j.geoen.2024.213037</t>
+  </si>
+  <si>
+    <t>10.3390/robotics14060068</t>
+  </si>
+  <si>
+    <t>10.3390/math13060961</t>
+  </si>
+  <si>
+    <t>10.3390/app14156393</t>
+  </si>
+  <si>
+    <t>10.3390/s22176706</t>
+  </si>
+  <si>
+    <t>10.1109/TNSE.2021.3130602</t>
+  </si>
+  <si>
+    <t>10.1016/j.jclepro.2023.138057</t>
+  </si>
+  <si>
+    <t>10.3390/machines11040446</t>
+  </si>
+  <si>
+    <t>10.11975/j.issn.1002-6819.2021.05.004</t>
+  </si>
+  <si>
+    <t>10.3390/app13127231</t>
   </si>
   <si>
     <t>10.1007/s11740-023-01204-8</t>
   </si>
   <si>
-    <t>10.1038/s41598-025-10226-4</t>
-  </si>
-  <si>
-    <t>10.3390/math12203296</t>
-  </si>
-  <si>
-    <t>10.11975/j.issn.1002-6819.2021.05.004</t>
-  </si>
-  <si>
-    <t>10.3390/en18030476</t>
-  </si>
-  <si>
-    <t>10.3390/en15020418</t>
-  </si>
-  <si>
-    <t>10.3390/met11010056</t>
-  </si>
-  <si>
-    <t>10.1109/ACCESS.2025.3573646</t>
-  </si>
-  <si>
-    <t>10.1007/s40998-022-00488-3</t>
-  </si>
-  <si>
-    <t>10.1108/RIA-05-2023-0062</t>
-  </si>
-  <si>
-    <t>10.1016/j.compchemeng.2024.108812</t>
-  </si>
-  <si>
-    <t>10.3390/en16207035</t>
-  </si>
-  <si>
-    <t>10.1109/ACCESS.2021.3064885</t>
-  </si>
-  <si>
-    <t>10.1177/09596518231204725</t>
-  </si>
-  <si>
-    <t>10.3390/act13060222</t>
-  </si>
-  <si>
-    <t>10.1016/j.rcim.2021.102133</t>
-  </si>
-  <si>
-    <t>10.1109/ACCESS.2024.3513484</t>
-  </si>
-  <si>
-    <t>10.3390/app13148406</t>
-  </si>
-  <si>
-    <t>10.1016/j.egyr.2022.01.135</t>
-  </si>
-  <si>
-    <t>10.1016/j.conengprac.2023.105482</t>
-  </si>
-  <si>
-    <t>10.1016/j.aei.2024.102949</t>
-  </si>
-  <si>
-    <t>10.1177/0020294020983372</t>
-  </si>
-  <si>
-    <t>10.3390/app122312186</t>
-  </si>
-  <si>
-    <t>10.3390/s22218141</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijhydene.2022.04.189</t>
-  </si>
-  <si>
-    <t>10.3390/en17225633</t>
-  </si>
-  <si>
-    <t>10.3390/math13060961</t>
-  </si>
-  <si>
-    <t>10.1299/jamdsm.2023jamdsm0070</t>
-  </si>
-  <si>
-    <t>10.1016/j.dche.2023.100116</t>
-  </si>
-  <si>
-    <t>10.3390/machines10010011</t>
-  </si>
-  <si>
-    <t>10.1016/j.energy.2024.132711</t>
-  </si>
-  <si>
-    <t>10.1016/j.compchemeng.2021.107641</t>
-  </si>
-  <si>
-    <t>10.3390/app112110376</t>
-  </si>
-  <si>
-    <t>10.1016/j.dche.2025.100217</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-021-97134-5</t>
-  </si>
-  <si>
-    <t>10.1016/j.geoen.2024.213037</t>
-  </si>
-  <si>
-    <t>10.3390/robotics14060068</t>
-  </si>
-  <si>
-    <t>10.3390/app14156393</t>
-  </si>
-  <si>
-    <t>10.1088/2631-8695/ad23c8</t>
-  </si>
-  <si>
-    <t>10.3390/s22176706</t>
-  </si>
-  <si>
-    <t>10.1109/TNSE.2021.3130602</t>
-  </si>
-  <si>
-    <t>10.1016/j.jclepro.2023.138057</t>
-  </si>
-  <si>
-    <t>10.3390/machines11040446</t>
-  </si>
-  <si>
-    <t>10.3390/app13127231</t>
-  </si>
-  <si>
     <t>10.1016/j.jmsy.2024.06.007</t>
   </si>
   <si>
     <t>10.1016/j.isatra.2021.02.035</t>
   </si>
   <si>
-    <t>10.3390/electronics12204306</t>
-  </si>
-  <si>
     <t>10.18421/TEM101-23</t>
   </si>
   <si>
     <t>10.4028/p-MX1eNP</t>
   </si>
   <si>
+    <t>reinforcement learning for control of valves</t>
+  </si>
+  <si>
+    <t>fault detection of flow control valves using online lightgbm and stl decomposition</t>
+  </si>
+  <si>
     <t>implementation of annbased autoadjustable for a pneumatic servo system embedded on fpga</t>
   </si>
   <si>
-    <t>reinforcement learning for control of valves</t>
+    <t>control valve stiction detection using markov transition field and deep convolutional neural network</t>
+  </si>
+  <si>
+    <t>automatic oscillations detection and classification of control loop using generalized machine learning algorithms</t>
   </si>
   <si>
     <t>stictionmodelbased retuning of pi controller for industrial process control loops</t>
   </si>
   <si>
-    <t>automatic oscillations detection and classification of control loop using generalized machine learning algorithms</t>
-  </si>
-  <si>
-    <t>control valve stiction detection using markov transition field and deep convolutional neural network</t>
+    <t>implementing and evaluating the quality 40 pmq framework for process monitoring in automotive manufacturing</t>
+  </si>
+  <si>
+    <t>advanced study improving the quality of cooling water towers conductivity using a fuzzy pid control model</t>
+  </si>
+  <si>
+    <t>parameters optimization in compressed air pressure process using hybrid fmingabased pid and fractional order internal model controller</t>
   </si>
   <si>
     <t>comparative analysis of pid and robust imc control in cascaded processes with timedelay</t>
   </si>
   <si>
-    <t>parameters optimization in compressed air pressure process using hybrid fmingabased pid and fractional order internal model controller</t>
+    <t>nonlinear optimal control for robotic exoskeletons with electropneumatic actuators</t>
+  </si>
+  <si>
+    <t>modeling optimization and control of a ceramic tunnel kiln for consistent product quality under changing production demands</t>
+  </si>
+  <si>
+    <t>neurofuzzy system for compensating slow disturbances in adaptive mold level control</t>
+  </si>
+  <si>
+    <t>precise burden charging operation during ironmaking process in blast furnace</t>
+  </si>
+  <si>
+    <t>internal model control for onboard methanolreforming hydrogen production systems</t>
+  </si>
+  <si>
+    <t>intelligent control valve stiction diagnosis approach</t>
+  </si>
+  <si>
+    <t>industrial implementation of state dependent parameter pid plus control for nonlinear time delayed bitumen tank system</t>
+  </si>
+  <si>
+    <t>performance comparison of control strategies for plantwide produced water treatment</t>
+  </si>
+  <si>
+    <t>a literature review of the positive displacement compressor current challenges and future opportunities</t>
+  </si>
+  <si>
+    <t>predictive control scheme by integrating eventtriggered mechanism and disturbance observer under actuator failure and sensor fault</t>
+  </si>
+  <si>
+    <t>exploring the application of large language models based ai agents in leakage detection of natural gas valve chambers</t>
+  </si>
+  <si>
+    <t>research of pneumatic polishing force control system based on high speed onoff with pwm controlling</t>
+  </si>
+  <si>
+    <t>residual life prediction of pneumatic control valves based on transtcngru modeling</t>
+  </si>
+  <si>
+    <t>revolutionizing tire quality control ais impact on research development and reallife applications</t>
+  </si>
+  <si>
+    <t>selfadapting antisurge intelligence control and numerical simulation of centrifugal compressors based on rbf neural network</t>
+  </si>
+  <si>
+    <t>stiction compensation for lowcost electric valves</t>
+  </si>
+  <si>
+    <t>stiction detection and recurrence analysis for control valves by phase space reconstruction method</t>
+  </si>
+  <si>
+    <t>surge protection of centrifugal compressors using advanced antisurge control system</t>
+  </si>
+  <si>
+    <t>tire bubble defect detection using incremental learning</t>
+  </si>
+  <si>
+    <t>realtime pipe and valve characterisation and mapping for autonomous underwater intervention tasks</t>
+  </si>
+  <si>
+    <t>experimental analysis of the performance of the air supply system in a 120 kw polymer electrolyte membrane fuel cell system</t>
+  </si>
+  <si>
+    <t>explainable attentionbased fused convolutional neural network xafcnn for tire defect detection an industrial case study</t>
+  </si>
+  <si>
+    <t>a method for detecting key points of transferring barrel valve by integrating keypoint rcnn and mobilenetv3</t>
+  </si>
+  <si>
+    <t>a novel modelling of glue allowance prediction for timepressure dispensing system based on gated recurrent unit and fully connected neural network</t>
+  </si>
+  <si>
+    <t>a oneclass support vector machine for detecting valve stiction</t>
+  </si>
+  <si>
+    <t>a performance prediction method for a highprecision servo valve supported by digital twin assemblycommissioning</t>
+  </si>
+  <si>
+    <t>a systematic approach for data generation for intelligent fault detection and diagnosis in district heating</t>
+  </si>
+  <si>
+    <t>an approach for stiction compensation in industrial process control valves</t>
+  </si>
+  <si>
+    <t>anomaly segmentation based on depth image for quality inspection processes in tire manufacturing</t>
+  </si>
+  <si>
+    <t>apah an autonomous iot driven realtime monitoring system for industrial wastewater</t>
+  </si>
+  <si>
+    <t>applicant hierarchical fuzzy controller for concentration control of simulated moving bed</t>
+  </si>
+  <si>
+    <t>bridging the performance gap between passive and autonomous inflow control devices with a hybrid dynamic optimization technique integrating machine learning and global sensitivity analysis</t>
+  </si>
+  <si>
+    <t>communicating the automatic control principles in smart agriculture education the interactive water pump example</t>
+  </si>
+  <si>
+    <t>complex dynamics and intelligent control advances challenges and applications in mining and industrial processes</t>
+  </si>
+  <si>
+    <t>utilizing selected machine learning methods for conicity prediction in the process of producing radial tires for passenger cars</t>
+  </si>
+  <si>
+    <t>design of fopid controller for pneumatic control valve based on improved bbo algorithm</t>
+  </si>
+  <si>
+    <t>detecting semantic attack in scada system a behavioral model based on secondary labeling of statesduration evolution graph</t>
+  </si>
+  <si>
+    <t>developing a novel gaussian process model predictive controller to improve the energy efficiency and tracking accuracy of the pressure servo control system</t>
+  </si>
+  <si>
+    <t>development of pneumatic forcecontrolled actuator for automatic robot polishing complex curved plexiglass parts</t>
+  </si>
+  <si>
+    <t>development of rotary straw burying and returning navigation system based on variablegain singleneuron pid 基于变增益单神经元pid的秸秆旋埋还田导航系统研制</t>
+  </si>
+  <si>
+    <t>dynamic prediction of performance degradation characteristics of directdrive electrohydraulic servo valves</t>
   </si>
   <si>
     <t>enhanced classification of hydraulic testing of directional control valves with synthetic data generation</t>
   </si>
   <si>
-    <t>implementing and evaluating the quality 40 pmq framework for process monitoring in automotive manufacturing</t>
-  </si>
-  <si>
-    <t>advanced study improving the quality of cooling water towers conductivity using a fuzzy pid control model</t>
-  </si>
-  <si>
-    <t>development of rotary straw burying and returning navigation system based on variablegain singleneuron pid 基于变增益单神经元pid的秸秆旋埋还田导航系统研制</t>
-  </si>
-  <si>
-    <t>internal model control for onboard methanolreforming hydrogen production systems</t>
-  </si>
-  <si>
-    <t>performance comparison of control strategies for plantwide produced water treatment</t>
-  </si>
-  <si>
-    <t>neurofuzzy system for compensating slow disturbances in adaptive mold level control</t>
-  </si>
-  <si>
-    <t>intelligent control valve stiction diagnosis approach</t>
-  </si>
-  <si>
-    <t>industrial implementation of state dependent parameter pid plus control for nonlinear time delayed bitumen tank system</t>
-  </si>
-  <si>
-    <t>nonlinear optimal control for robotic exoskeletons with electropneumatic actuators</t>
-  </si>
-  <si>
-    <t>modeling optimization and control of a ceramic tunnel kiln for consistent product quality under changing production demands</t>
-  </si>
-  <si>
-    <t>a literature review of the positive displacement compressor current challenges and future opportunities</t>
-  </si>
-  <si>
-    <t>precise burden charging operation during ironmaking process in blast furnace</t>
-  </si>
-  <si>
-    <t>predictive control scheme by integrating eventtriggered mechanism and disturbance observer under actuator failure and sensor fault</t>
-  </si>
-  <si>
-    <t>fault detection of flow control valves using online lightgbm and stl decomposition</t>
-  </si>
-  <si>
-    <t>research of pneumatic polishing force control system based on high speed onoff with pwm controlling</t>
-  </si>
-  <si>
-    <t>residual life prediction of pneumatic control valves based on transtcngru modeling</t>
-  </si>
-  <si>
-    <t>revolutionizing tire quality control ais impact on research development and reallife applications</t>
-  </si>
-  <si>
-    <t>selfadapting antisurge intelligence control and numerical simulation of centrifugal compressors based on rbf neural network</t>
-  </si>
-  <si>
-    <t>stiction compensation for lowcost electric valves</t>
-  </si>
-  <si>
-    <t>stiction detection and recurrence analysis for control valves by phase space reconstruction method</t>
-  </si>
-  <si>
-    <t>surge protection of centrifugal compressors using advanced antisurge control system</t>
-  </si>
-  <si>
-    <t>tire bubble defect detection using incremental learning</t>
-  </si>
-  <si>
-    <t>realtime pipe and valve characterisation and mapping for autonomous underwater intervention tasks</t>
-  </si>
-  <si>
-    <t>experimental analysis of the performance of the air supply system in a 120 kw polymer electrolyte membrane fuel cell system</t>
-  </si>
-  <si>
-    <t>exploring the application of large language models based ai agents in leakage detection of natural gas valve chambers</t>
-  </si>
-  <si>
-    <t>complex dynamics and intelligent control advances challenges and applications in mining and industrial processes</t>
-  </si>
-  <si>
-    <t>a novel modelling of glue allowance prediction for timepressure dispensing system based on gated recurrent unit and fully connected neural network</t>
-  </si>
-  <si>
-    <t>a oneclass support vector machine for detecting valve stiction</t>
-  </si>
-  <si>
-    <t>a performance prediction method for a highprecision servo valve supported by digital twin assemblycommissioning</t>
-  </si>
-  <si>
-    <t>a systematic approach for data generation for intelligent fault detection and diagnosis in district heating</t>
-  </si>
-  <si>
-    <t>an approach for stiction compensation in industrial process control valves</t>
-  </si>
-  <si>
-    <t>anomaly segmentation based on depth image for quality inspection processes in tire manufacturing</t>
-  </si>
-  <si>
-    <t>apah an autonomous iot driven realtime monitoring system for industrial wastewater</t>
-  </si>
-  <si>
-    <t>applicant hierarchical fuzzy controller for concentration control of simulated moving bed</t>
-  </si>
-  <si>
-    <t>bridging the performance gap between passive and autonomous inflow control devices with a hybrid dynamic optimization technique integrating machine learning and global sensitivity analysis</t>
-  </si>
-  <si>
-    <t>communicating the automatic control principles in smart agriculture education the interactive water pump example</t>
-  </si>
-  <si>
-    <t>utilizing selected machine learning methods for conicity prediction in the process of producing radial tires for passenger cars</t>
-  </si>
-  <si>
-    <t>explainable attentionbased fused convolutional neural network xafcnn for tire defect detection an industrial case study</t>
-  </si>
-  <si>
-    <t>design of fopid controller for pneumatic control valve based on improved bbo algorithm</t>
-  </si>
-  <si>
-    <t>detecting semantic attack in scada system a behavioral model based on secondary labeling of statesduration evolution graph</t>
-  </si>
-  <si>
-    <t>developing a novel gaussian process model predictive controller to improve the energy efficiency and tracking accuracy of the pressure servo control system</t>
-  </si>
-  <si>
-    <t>development of pneumatic forcecontrolled actuator for automatic robot polishing complex curved plexiglass parts</t>
-  </si>
-  <si>
-    <t>dynamic prediction of performance degradation characteristics of directdrive electrohydraulic servo valves</t>
-  </si>
-  <si>
     <t>enhancing metal additive manufacturing training with the advanced vision language model a pathway to immersive augmented reality training for nonexperts</t>
   </si>
   <si>
     <t>eventdriven enabled regression aided multiloop control for sec minimisation in swro desalination considering salinity variation</t>
   </si>
   <si>
-    <t>a method for detecting key points of transferring barrel valve by integrating keypoint rcnn and mobilenetv3</t>
-  </si>
-  <si>
     <t>new mca generator</t>
   </si>
   <si>
@@ -814,15 +814,15 @@
     <t>10.1109/access.2024.3467922</t>
   </si>
   <si>
+    <t>10.1108/ria-05-2023-0062</t>
+  </si>
+  <si>
+    <t>10.1109/access.2021.3064885</t>
+  </si>
+  <si>
     <t>10.1109/access.2025.3573646</t>
   </si>
   <si>
-    <t>10.1108/ria-05-2023-0062</t>
-  </si>
-  <si>
-    <t>10.1109/access.2021.3064885</t>
-  </si>
-  <si>
     <t>10.1109/access.2024.3513484</t>
   </si>
   <si>
@@ -838,340 +838,313 @@
     <t>10.4028/p-mx1enp</t>
   </si>
   <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>Exclude</t>
   </si>
   <si>
-    <t>Does not focus on industrial valve control or relevant outcomes.</t>
-  </si>
-  <si>
-    <t>Lacks sufficient detail in the abstract to assess relevance and outcomes.</t>
-  </si>
-  <si>
-    <t>Focuses on PID control without ML intervention</t>
-  </si>
-  <si>
-    <t>Does not focus on valve control performance metrics or direct comparison with PID controllers.</t>
-  </si>
-  <si>
-    <t>Does not focus on valve control performance metrics or ML interventions relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>Focuses on PID and IMC control without ML techniques or relevant industrial applications.</t>
-  </si>
-  <si>
-    <t>The study focuses on PID and optimization techniques without ML interventions relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>The record does not focus on valve control or performance metrics relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>Not relevant to valve control or the specified industrial processes.</t>
-  </si>
-  <si>
-    <t>The study focuses on fuzzy PID control for cooling water towers, not on ML-based control or valve applications.</t>
-  </si>
-  <si>
-    <t>The record focuses on agricultural machinery and a PID controller, not on ML-based control for industrial valve applications.</t>
-  </si>
-  <si>
-    <t>Lacks relevant content and details for PICO criteria.</t>
-  </si>
-  <si>
-    <t>Lacks sufficient information to assess relevance to PICO criteria.</t>
-  </si>
-  <si>
-    <t>The record does not focus on valve control or ML techniques relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>The record does not focus on ML control interventions or PID comparisons relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>The record does not focus on ML-based control methods or relevant industrial processes as per the PICO criteria.</t>
-  </si>
-  <si>
-    <t>The record focuses on robotic exoskeletons and electropneumatic actuators, which are not relevant to industrial valve control processes.</t>
-  </si>
-  <si>
-    <t>Not relevant to industrial valve control or ML interventions.</t>
-  </si>
-  <si>
-    <t>The record does not address the PICO question regarding industrial processes with valves or ML control methods.</t>
-  </si>
-  <si>
-    <t>The record does not relate to industrial valve control or ML interventions in the specified domains.</t>
-  </si>
-  <si>
-    <t>Lacks relevant details on ML techniques and comparison to PID controllers.</t>
-  </si>
-  <si>
-    <t>The record focuses on fault detection rather than control performance of valves using ML techniques.</t>
-  </si>
-  <si>
-    <t>The record does not address the PICO elements relevant to industrial valve control or ML interventions.</t>
-  </si>
-  <si>
-    <t>The record does not focus on valve control or ML interventions relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>The record does not relate to industrial processes with valves or ML control interventions.</t>
-  </si>
-  <si>
-    <t>Lacks relevant information on valve control and ML techniques for industrial processes.</t>
-  </si>
-  <si>
-    <t>The record does not focus on ML-based control or relevant industrial processes with valves.</t>
-  </si>
-  <si>
-    <t>The record does not focus on ML-based control interventions or compare them to PID controllers.</t>
-  </si>
-  <si>
-    <t>The record does not address the specified PICO elements related to valve control and ML interventions.</t>
-  </si>
-  <si>
-    <t>The record does not relate to industrial processes with valves or ML control methods.</t>
-  </si>
-  <si>
-    <t>Focuses on leakage detection rather than control of industrial processes with valves.</t>
-  </si>
-  <si>
-    <t>Lacks specific focus on valve control and relevant outcomes for the PICO question.</t>
-  </si>
-  <si>
-    <t>The record does not relate to industrial valve control or the specified PICO elements.</t>
-  </si>
-  <si>
-    <t>The record does not focus on ML control strategies for valve control, but rather on detection of valve stiction.</t>
-  </si>
-  <si>
-    <t>The record does not focus on industrial processes with valves or ML control methods relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>The record does not address the specified PICO elements related to industrial valve control and ML interventions.</t>
-  </si>
-  <si>
-    <t>Lacks relevant details on ML control methods and outcomes related to valve performance.</t>
-  </si>
-  <si>
-    <t>The record does not address industrial valve control or relevant ML techniques for the specified PICO question.</t>
-  </si>
-  <si>
-    <t>Lacks sufficient details on control tasks and outcomes relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>Not relevant to industrial valve control or the specified PICO elements.</t>
-  </si>
-  <si>
-    <t>The record does not relate to valve control or the specified industrial processes.</t>
-  </si>
-  <si>
-    <t>The record does not focus on ML-based control methods or relevant industrial processes involving valves.</t>
-  </si>
-  <si>
-    <t>The record does not address industrial processes with valves or ML control techniques relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>Does not focus on valve control or ML techniques relevant to the PICO question.</t>
-  </si>
-  <si>
-    <t>Lacks relevant content on ML control for valve systems and comparison with PID.</t>
-  </si>
-  <si>
-    <t>The record does not focus on valve control or the specified industrial processes.</t>
-  </si>
-  <si>
-    <t>The record does not address ML control of valves in industrial processes as per the PICO criteria.</t>
-  </si>
-  <si>
-    <t>The record does not address the PICO elements relevant to industrial valve control using ML techniques.</t>
-  </si>
-  <si>
-    <t>Lacks relevant details on ML control and comparison to PID.</t>
-  </si>
-  <si>
-    <t>ANN/Neuro-PID</t>
+    <t>The study focuses on reinforcement learning for valve control, which aligns with the research context.</t>
+  </si>
+  <si>
+    <t>Focuses on fault detection rather than control performance or comparison with PID controllers.</t>
+  </si>
+  <si>
+    <t>Focus on pneumatic servo systems and robotics, not directly on industrial valve control.</t>
+  </si>
+  <si>
+    <t>Focuses on stiction detection rather than direct valve control performance.</t>
+  </si>
+  <si>
+    <t>Focuses on oscillation detection rather than direct valve control performance comparison with PID.</t>
+  </si>
+  <si>
+    <t>Focuses on PI controller re-tuning rather than ML techniques or comparisons with PID.</t>
+  </si>
+  <si>
+    <t>The record focuses on automotive manufacturing and quality monitoring, not on valve control systems or relevant industrial processes.</t>
+  </si>
+  <si>
+    <t>Focuses on fuzzy PID control, not ML-based techniques or valve control systems.</t>
+  </si>
+  <si>
+    <t>Focuses on PID optimization rather than ML techniques for valve control.</t>
+  </si>
+  <si>
+    <t>Focuses on IMC and PID tuning without ML techniques or valve control specifics.</t>
+  </si>
+  <si>
+    <t>The record focuses on robotic exoskeletons and nonlinear control, which is not relevant to industrial valve control systems.</t>
+  </si>
+  <si>
+    <t>The study focuses on a ceramic tunnel kiln, which is not directly related to industrial valve control systems.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control systems or ML techniques relevant to PID comparison.</t>
+  </si>
+  <si>
+    <t>No relevant information provided in the title or abstract regarding valve control or ML techniques.</t>
+  </si>
+  <si>
+    <t>The title and source do not indicate relevance to valve control systems or ML techniques in industrial processes.</t>
+  </si>
+  <si>
+    <t>Focuses on stiction diagnosis rather than control performance or ML techniques for valve control.</t>
+  </si>
+  <si>
+    <t>The record does not focus on ML techniques or valve control systems relevant to the research question.</t>
+  </si>
+  <si>
+    <t>No abstract provided and keywords do not indicate relevance to valve control systems.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control systems or ML techniques relevant to the research question.</t>
+  </si>
+  <si>
+    <t>The study focuses on leakage detection in natural gas valve chambers, not on control systems or performance comparison with PID controllers.</t>
+  </si>
+  <si>
+    <t>The study focuses on pneumatic polishing force control, which is not directly related to industrial valve control systems.</t>
+  </si>
+  <si>
+    <t>The record focuses on residual life prediction of pneumatic control valves, not on control performance or ML techniques for valve control.</t>
+  </si>
+  <si>
+    <t>The record does not relate to industrial valve control systems or ML techniques in that context.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control systems, and the abstract is missing, limiting the ability to assess relevance.</t>
+  </si>
+  <si>
+    <t>Focus on stiction compensation rather than ML-based control techniques for valves.</t>
+  </si>
+  <si>
+    <t>Focuses on stiction detection rather than ML-based control techniques or PID comparison.</t>
+  </si>
+  <si>
+    <t>The record does not relate to industrial valve control systems or ML techniques for PID comparison.</t>
+  </si>
+  <si>
+    <t>The title and source do not indicate relevance to industrial valve control systems or ML techniques in the context of PID comparison.</t>
+  </si>
+  <si>
+    <t>The record does not relate to industrial valve control systems or ML techniques in the context of PID comparison.</t>
+  </si>
+  <si>
+    <t>The study focuses on tire defect detection, not valve control systems.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control systems or ML techniques for control, lacking relevant content for the systematic review.</t>
+  </si>
+  <si>
+    <t>The record does not relate to valve control systems or ML techniques applicable to industrial processes involving valves.</t>
+  </si>
+  <si>
+    <t>Focuses on valve stiction detection rather than control performance or ML-based control techniques.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control systems relevant to the research context.</t>
+  </si>
+  <si>
+    <t>No abstract provided and keywords do not indicate relevance to valve control or ML techniques.</t>
+  </si>
+  <si>
+    <t>The record is unrelated to valve control systems or ML techniques in industrial processes.</t>
+  </si>
+  <si>
+    <t>The record focuses on IoT monitoring for wastewater, not on valve control or ML techniques in industrial processes.</t>
+  </si>
+  <si>
+    <t>Lacks sufficient information in the abstract and keywords to assess relevance to valve control systems.</t>
+  </si>
+  <si>
+    <t>The record does not focus on industrial valve control systems or ML techniques relevant to the PICO framework.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control systems or ML techniques specifically applied to PID comparisons in industrial processes.</t>
+  </si>
+  <si>
+    <t>The study focuses on conicity prediction in tire production, not valve control systems.</t>
+  </si>
+  <si>
+    <t>Focuses on FOPID controller, not ML-based techniques.</t>
+  </si>
+  <si>
+    <t>Focuses on Gaussian process model predictive control, not ML-based valve control techniques.</t>
+  </si>
+  <si>
+    <t>The record does not relate to valve control systems or ML techniques in industrial processes.</t>
+  </si>
+  <si>
+    <t>Focus on agricultural machinery and navigation systems, not industrial valve control.</t>
+  </si>
+  <si>
+    <t>The record does not focus on ML-based control techniques for valve systems, nor does it compare with PID controllers.</t>
+  </si>
+  <si>
+    <t>The record focuses on quality control and synthetic data generation rather than valve control systems or ML techniques applied to PID comparisons.</t>
+  </si>
+  <si>
+    <t>The title does not indicate a focus on valve control or ML techniques relevant to PID comparison.</t>
+  </si>
+  <si>
+    <t>The record does not focus on valve control or ML techniques relevant to the research question.</t>
   </si>
   <si>
     <t>Reinforcement Learning</t>
   </si>
   <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>ANN-based control</t>
+  </si>
+  <si>
+    <t>Deep Convolutional Neural Network</t>
+  </si>
+  <si>
     <t>generalized machine learning algorithms</t>
   </si>
   <si>
-    <t>Deep Convolutional Neural Network</t>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Fuzzy PID control</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>Large Language Model (LLM)</t>
+  </si>
+  <si>
+    <t>RBF neural network</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>FOPID controller</t>
+  </si>
+  <si>
+    <t>Gaussian process model predictive control</t>
+  </si>
+  <si>
+    <t>Variable-gain single-neuron PID</t>
+  </si>
+  <si>
     <t>Conditional tabular generative adversarial networks, semi-supervised learning</t>
   </si>
   <si>
-    <t>Machine learning</t>
-  </si>
-  <si>
-    <t>Fuzzy PID</t>
-  </si>
-  <si>
-    <t>Single-neuron PID</t>
-  </si>
-  <si>
-    <t>Neuro-Fuzzy System</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
-    <t>RBF neural network</t>
-  </si>
-  <si>
-    <t>Large Language Models (LLM)</t>
-  </si>
-  <si>
-    <t>Gated recurrent unit, fully connected neural network</t>
-  </si>
-  <si>
-    <t>Support Vector Machine</t>
-  </si>
-  <si>
-    <t>fuzzy controller</t>
-  </si>
-  <si>
-    <t>hybrid dynamic optimization with ML</t>
+    <t>Valve control</t>
+  </si>
+  <si>
+    <t>fault detection</t>
+  </si>
+  <si>
+    <t>pneumatic servo system</t>
+  </si>
+  <si>
+    <t>Stiction detection</t>
+  </si>
+  <si>
+    <t>oscillation detection</t>
+  </si>
+  <si>
+    <t>process control</t>
+  </si>
+  <si>
+    <t>Process monitoring</t>
+  </si>
+  <si>
+    <t>Conductivity control</t>
+  </si>
+  <si>
+    <t>Pressure control</t>
+  </si>
+  <si>
+    <t>Leakage detection</t>
+  </si>
+  <si>
+    <t>anti-surge control</t>
+  </si>
+  <si>
+    <t>valve control</t>
+  </si>
+  <si>
+    <t>control loop</t>
+  </si>
+  <si>
+    <t>Detection of valve stiction</t>
+  </si>
+  <si>
+    <t>pneumatic control valve</t>
+  </si>
+  <si>
+    <t>pressure tracking</t>
+  </si>
+  <si>
+    <t>Navigation system control</t>
   </si>
   <si>
     <t>Not applicable</t>
   </si>
   <si>
-    <t>Convolutional Neural Network</t>
-  </si>
-  <si>
-    <t>FOPID Controller</t>
-  </si>
-  <si>
-    <t>Gaussian process model predictive control</t>
-  </si>
-  <si>
-    <t>pneumatic actuator control</t>
-  </si>
-  <si>
-    <t>Valve control</t>
-  </si>
-  <si>
-    <t>control loops</t>
-  </si>
-  <si>
-    <t>oscillation detection</t>
-  </si>
-  <si>
-    <t>Stiction detection</t>
-  </si>
-  <si>
-    <t>Process control</t>
-  </si>
-  <si>
-    <t>Pressure control</t>
-  </si>
-  <si>
-    <t>Not specified, but related to quality control</t>
-  </si>
-  <si>
-    <t>Process monitoring</t>
-  </si>
-  <si>
-    <t>Navigation system control</t>
-  </si>
-  <si>
-    <t>Mold Level Control</t>
-  </si>
-  <si>
-    <t>fault detection</t>
+    <t>Industrial processes</t>
+  </si>
+  <si>
+    <t>flow control</t>
+  </si>
+  <si>
+    <t>robotics</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>control systems</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Cooling water systems</t>
+  </si>
+  <si>
+    <t>Natural gas valve chambers</t>
+  </si>
+  <si>
+    <t>centrifugal compressors</t>
+  </si>
+  <si>
+    <t>Control loop performance monitoring</t>
+  </si>
+  <si>
+    <t>pneumatic system</t>
+  </si>
+  <si>
+    <t>Agricultural machinery</t>
+  </si>
+  <si>
+    <t>Quality control</t>
+  </si>
+  <si>
+    <t>Loop performance, robustness</t>
+  </si>
+  <si>
+    <t>not applicable</t>
   </si>
   <si>
     <t>not specified</t>
   </si>
   <si>
-    <t>valve control</t>
-  </si>
-  <si>
-    <t>Leakage detection</t>
-  </si>
-  <si>
-    <t>Valve stiction detection</t>
-  </si>
-  <si>
-    <t>concentration control</t>
-  </si>
-  <si>
-    <t>Pneumatic control valve</t>
-  </si>
-  <si>
-    <t>pressure tracking</t>
-  </si>
-  <si>
-    <t>robotics</t>
-  </si>
-  <si>
-    <t>Industrial processes</t>
-  </si>
-  <si>
-    <t>industrial process control</t>
-  </si>
-  <si>
-    <t>control systems</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Quality control, not directly related to valve control</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Cooling water systems</t>
-  </si>
-  <si>
-    <t>Agricultural machinery</t>
-  </si>
-  <si>
-    <t>Not relevant to specified domains</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>flow control</t>
-  </si>
-  <si>
-    <t>centrifugal compressors</t>
-  </si>
-  <si>
-    <t>Natural gas valve chambers</t>
-  </si>
-  <si>
-    <t>Control loop performance monitoring</t>
-  </si>
-  <si>
-    <t>related process</t>
-  </si>
-  <si>
-    <t>pneumatic system</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t>Robustness</t>
-  </si>
-  <si>
-    <t>Not specified, focuses on predictive quality</t>
+    <t>oscillation detection accuracy</t>
   </si>
   <si>
     <t>Quality optimization</t>
-  </si>
-  <si>
-    <t>not applicable</t>
   </si>
   <si>
     <t>energy efficiency, tracking accuracy</t>
@@ -1622,9 +1595,6 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" t="s">
         <v>107</v>
       </c>
@@ -1641,22 +1611,22 @@
         <v>274</v>
       </c>
       <c r="L2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -1665,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="X2" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="Y2" t="b">
         <v>1</v>
@@ -1690,6 +1660,9 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
       <c r="D3" t="s">
         <v>108</v>
       </c>
@@ -1703,16 +1676,16 @@
         <v>153</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1733,16 +1706,16 @@
         <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="W3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="X3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Y3" t="b">
         <v>1</v>
@@ -1750,7 +1723,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1771,25 +1744,25 @@
         <v>154</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1798,16 +1771,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>327</v>
       </c>
       <c r="V4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="W4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="X4" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="Y4" t="b">
         <v>1</v>
@@ -1815,7 +1791,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -1836,16 +1812,16 @@
         <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1863,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="V5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="W5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="X5" t="s">
         <v>357</v>
@@ -1883,7 +1859,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -1904,10 +1880,10 @@
         <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1934,16 +1910,16 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="V6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="W6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="X6" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="Y6" t="b">
         <v>1</v>
@@ -1951,7 +1927,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -1969,13 +1945,13 @@
         <v>213</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1984,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -2001,17 +1977,11 @@
       <c r="T7">
         <v>5</v>
       </c>
-      <c r="U7" t="s">
-        <v>328</v>
-      </c>
       <c r="V7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="W7" t="s">
-        <v>368</v>
-      </c>
-      <c r="X7" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="Y7" t="b">
         <v>1</v>
@@ -2019,7 +1989,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -2040,19 +2010,19 @@
         <v>158</v>
       </c>
       <c r="K8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2067,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="V8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="W8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="X8" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="Y8" t="b">
         <v>1</v>
@@ -2087,7 +2057,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2108,19 +2078,19 @@
         <v>159</v>
       </c>
       <c r="K9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2135,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="V9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="W9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="X9" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="Y9" t="b">
         <v>1</v>
@@ -2155,7 +2125,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -2176,19 +2146,19 @@
         <v>160</v>
       </c>
       <c r="K10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2203,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="V10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="W10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="X10" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="Y10" t="b">
         <v>1</v>
@@ -2223,7 +2193,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -2241,13 +2211,13 @@
         <v>217</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2273,25 +2243,13 @@
       <c r="T11">
         <v>3</v>
       </c>
-      <c r="U11" t="s">
-        <v>331</v>
-      </c>
-      <c r="V11" t="s">
-        <v>341</v>
-      </c>
-      <c r="W11" t="s">
-        <v>371</v>
-      </c>
-      <c r="X11" t="s">
-        <v>341</v>
-      </c>
       <c r="Y11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -2309,13 +2267,13 @@
         <v>218</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2324,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2339,19 +2297,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12" t="s">
-        <v>332</v>
-      </c>
-      <c r="V12" t="s">
-        <v>354</v>
-      </c>
-      <c r="W12" t="s">
-        <v>372</v>
-      </c>
-      <c r="X12" t="s">
-        <v>341</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="b">
         <v>1</v>
@@ -2364,6 +2310,9 @@
       <c r="B13" t="s">
         <v>38</v>
       </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" t="s">
         <v>118</v>
       </c>
@@ -2377,10 +2326,10 @@
         <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2405,6 +2354,9 @@
       </c>
       <c r="T13">
         <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>363</v>
       </c>
       <c r="Y13" t="b">
         <v>1</v>
@@ -2412,13 +2364,13 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
         <v>164</v>
@@ -2430,10 +2382,10 @@
         <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2465,13 +2417,13 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
         <v>165</v>
@@ -2480,13 +2432,13 @@
         <v>221</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="K15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2511,18 +2463,6 @@
       </c>
       <c r="T15">
         <v>1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>333</v>
-      </c>
-      <c r="V15" t="s">
-        <v>355</v>
-      </c>
-      <c r="W15" t="s">
-        <v>373</v>
-      </c>
-      <c r="X15" t="s">
-        <v>381</v>
       </c>
       <c r="Y15" t="b">
         <v>1</v>
@@ -2535,11 +2475,8 @@
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>166</v>
@@ -2548,13 +2485,13 @@
         <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2591,8 +2528,11 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
         <v>167</v>
@@ -2601,13 +2541,13 @@
         <v>223</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="K17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2644,11 +2584,8 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
         <v>168</v>
@@ -2657,13 +2594,13 @@
         <v>224</v>
       </c>
       <c r="J18" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2700,11 +2637,8 @@
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>169</v>
@@ -2716,10 +2650,10 @@
         <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2744,9 +2678,6 @@
       </c>
       <c r="T19">
         <v>1</v>
-      </c>
-      <c r="W19" t="s">
-        <v>374</v>
       </c>
       <c r="Y19" t="b">
         <v>1</v>
@@ -2754,13 +2685,13 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>170</v>
@@ -2772,10 +2703,10 @@
         <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2807,7 +2738,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2822,13 +2753,13 @@
         <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2865,6 +2796,9 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
       <c r="D22" t="s">
         <v>124</v>
       </c>
@@ -2878,7 +2812,7 @@
         <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L22" t="s">
         <v>295</v>
@@ -2906,6 +2840,18 @@
       </c>
       <c r="T22">
         <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>333</v>
+      </c>
+      <c r="V22" t="s">
+        <v>349</v>
+      </c>
+      <c r="W22" t="s">
+        <v>366</v>
+      </c>
+      <c r="X22" t="s">
+        <v>357</v>
       </c>
       <c r="Y22" t="b">
         <v>1</v>
@@ -2918,9 +2864,6 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" t="s">
         <v>125</v>
       </c>
@@ -2934,7 +2877,7 @@
         <v>173</v>
       </c>
       <c r="K23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L23" t="s">
         <v>296</v>
@@ -2963,31 +2906,19 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23" t="s">
-        <v>334</v>
-      </c>
-      <c r="V23" t="s">
-        <v>356</v>
-      </c>
-      <c r="W23" t="s">
-        <v>375</v>
-      </c>
-      <c r="X23" t="s">
-        <v>385</v>
-      </c>
       <c r="Y23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
         <v>174</v>
@@ -2996,10 +2927,10 @@
         <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s">
         <v>297</v>
@@ -3034,13 +2965,13 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
         <v>175</v>
@@ -3049,10 +2980,10 @@
         <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
         <v>298</v>
@@ -3087,7 +3018,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -3105,7 +3036,7 @@
         <v>176</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
         <v>299</v>
@@ -3133,6 +3064,18 @@
       </c>
       <c r="T26">
         <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>334</v>
+      </c>
+      <c r="V26" t="s">
+        <v>350</v>
+      </c>
+      <c r="W26" t="s">
+        <v>367</v>
+      </c>
+      <c r="X26" t="s">
+        <v>374</v>
       </c>
       <c r="Y26" t="b">
         <v>1</v>
@@ -3145,6 +3088,9 @@
       <c r="B27" t="s">
         <v>52</v>
       </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
       <c r="D27" t="s">
         <v>128</v>
       </c>
@@ -3158,7 +3104,7 @@
         <v>177</v>
       </c>
       <c r="K27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s">
         <v>300</v>
@@ -3187,17 +3133,11 @@
       <c r="T27">
         <v>1</v>
       </c>
-      <c r="U27" t="s">
-        <v>335</v>
-      </c>
       <c r="V27" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="W27" t="s">
-        <v>376</v>
-      </c>
-      <c r="X27" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Y27" t="b">
         <v>1</v>
@@ -3205,7 +3145,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -3226,7 +3166,7 @@
         <v>178</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
         <v>301</v>
@@ -3256,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="W28" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Y28" t="b">
         <v>1</v>
@@ -3272,9 +3212,6 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
       <c r="D29" t="s">
         <v>130</v>
       </c>
@@ -3288,10 +3225,10 @@
         <v>179</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3316,18 +3253,6 @@
       </c>
       <c r="T29">
         <v>1</v>
-      </c>
-      <c r="U29" t="s">
-        <v>328</v>
-      </c>
-      <c r="V29" t="s">
-        <v>346</v>
-      </c>
-      <c r="W29" t="s">
-        <v>368</v>
-      </c>
-      <c r="X29" t="s">
-        <v>328</v>
       </c>
       <c r="Y29" t="b">
         <v>1</v>
@@ -3335,13 +3260,13 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
         <v>180</v>
@@ -3353,10 +3278,10 @@
         <v>180</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3388,13 +3313,13 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>181</v>
@@ -3406,10 +3331,10 @@
         <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3441,7 +3366,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -3459,10 +3384,10 @@
         <v>182</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3494,7 +3419,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
@@ -3512,10 +3437,10 @@
         <v>183</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3552,9 +3477,6 @@
       <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
       <c r="D34" t="s">
         <v>134</v>
       </c>
@@ -3568,10 +3490,10 @@
         <v>184</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3596,18 +3518,6 @@
       </c>
       <c r="T34">
         <v>1</v>
-      </c>
-      <c r="U34" t="s">
-        <v>336</v>
-      </c>
-      <c r="V34" t="s">
-        <v>359</v>
-      </c>
-      <c r="W34" t="s">
-        <v>377</v>
-      </c>
-      <c r="X34" t="s">
-        <v>341</v>
       </c>
       <c r="Y34" t="b">
         <v>1</v>
@@ -3620,11 +3530,8 @@
       <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
         <v>185</v>
@@ -3636,10 +3543,10 @@
         <v>185</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3676,8 +3583,11 @@
       <c r="B36" t="s">
         <v>61</v>
       </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
         <v>186</v>
@@ -3689,10 +3599,10 @@
         <v>186</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3719,16 +3629,16 @@
         <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="V36" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="X36" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Y36" t="b">
         <v>1</v>
@@ -3741,11 +3651,8 @@
       <c r="B37" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>187</v>
@@ -3757,10 +3664,10 @@
         <v>187</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3785,18 +3692,6 @@
       </c>
       <c r="T37">
         <v>1</v>
-      </c>
-      <c r="U37" t="s">
-        <v>338</v>
-      </c>
-      <c r="V37" t="s">
-        <v>360</v>
-      </c>
-      <c r="W37" t="s">
-        <v>378</v>
-      </c>
-      <c r="X37" t="s">
-        <v>341</v>
       </c>
       <c r="Y37" t="b">
         <v>1</v>
@@ -3804,13 +3699,13 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>188</v>
@@ -3822,10 +3717,10 @@
         <v>188</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3857,13 +3752,13 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
         <v>189</v>
@@ -3875,7 +3770,7 @@
         <v>189</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
         <v>310</v>
@@ -3910,13 +3805,13 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
         <v>190</v>
@@ -3928,7 +3823,7 @@
         <v>190</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s">
         <v>311</v>
@@ -3956,12 +3851,6 @@
       </c>
       <c r="T40">
         <v>1</v>
-      </c>
-      <c r="V40" t="s">
-        <v>358</v>
-      </c>
-      <c r="W40" t="s">
-        <v>366</v>
       </c>
       <c r="Y40" t="b">
         <v>1</v>
@@ -3974,8 +3863,11 @@
       <c r="B41" t="s">
         <v>66</v>
       </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
         <v>191</v>
@@ -3987,10 +3879,10 @@
         <v>191</v>
       </c>
       <c r="K41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4027,11 +3919,8 @@
       <c r="B42" t="s">
         <v>67</v>
       </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
         <v>192</v>
@@ -4043,10 +3932,10 @@
         <v>192</v>
       </c>
       <c r="K42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4071,9 +3960,6 @@
       </c>
       <c r="T42">
         <v>1</v>
-      </c>
-      <c r="W42" t="s">
-        <v>374</v>
       </c>
       <c r="Y42" t="b">
         <v>1</v>
@@ -4081,13 +3967,13 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
         <v>193</v>
@@ -4099,10 +3985,10 @@
         <v>193</v>
       </c>
       <c r="K43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4127,18 +4013,6 @@
       </c>
       <c r="T43">
         <v>1</v>
-      </c>
-      <c r="U43" t="s">
-        <v>339</v>
-      </c>
-      <c r="V43" t="s">
-        <v>361</v>
-      </c>
-      <c r="W43" t="s">
-        <v>379</v>
-      </c>
-      <c r="X43" t="s">
-        <v>357</v>
       </c>
       <c r="Y43" t="b">
         <v>1</v>
@@ -4146,13 +4020,13 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
         <v>194</v>
@@ -4164,10 +4038,10 @@
         <v>194</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -4192,18 +4066,6 @@
       </c>
       <c r="T44">
         <v>1</v>
-      </c>
-      <c r="U44" t="s">
-        <v>340</v>
-      </c>
-      <c r="V44" t="s">
-        <v>357</v>
-      </c>
-      <c r="W44" t="s">
-        <v>357</v>
-      </c>
-      <c r="X44" t="s">
-        <v>357</v>
       </c>
       <c r="Y44" t="b">
         <v>1</v>
@@ -4216,8 +4078,11 @@
       <c r="B45" t="s">
         <v>70</v>
       </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>195</v>
@@ -4229,10 +4094,10 @@
         <v>195</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4264,13 +4129,13 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
         <v>196</v>
@@ -4282,10 +4147,10 @@
         <v>196</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L46" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4310,18 +4175,6 @@
       </c>
       <c r="T46">
         <v>1</v>
-      </c>
-      <c r="U46" t="s">
-        <v>341</v>
-      </c>
-      <c r="V46" t="s">
-        <v>341</v>
-      </c>
-      <c r="W46" t="s">
-        <v>341</v>
-      </c>
-      <c r="X46" t="s">
-        <v>341</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
@@ -4329,13 +4182,13 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
         <v>197</v>
@@ -4347,10 +4200,10 @@
         <v>197</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4377,16 +4230,16 @@
         <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="V47" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="W47" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="X47" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="Y47" t="b">
         <v>1</v>
@@ -4394,13 +4247,13 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>198</v>
@@ -4409,13 +4262,13 @@
         <v>254</v>
       </c>
       <c r="J48" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4440,18 +4293,6 @@
       </c>
       <c r="T48">
         <v>1</v>
-      </c>
-      <c r="U48" t="s">
-        <v>343</v>
-      </c>
-      <c r="V48" t="s">
-        <v>362</v>
-      </c>
-      <c r="W48" t="s">
-        <v>368</v>
-      </c>
-      <c r="X48" t="s">
-        <v>381</v>
       </c>
       <c r="Y48" t="b">
         <v>1</v>
@@ -4464,6 +4305,9 @@
       <c r="B49" t="s">
         <v>74</v>
       </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
       <c r="D49" t="s">
         <v>144</v>
       </c>
@@ -4474,13 +4318,13 @@
         <v>255</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="K49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4505,6 +4349,18 @@
       </c>
       <c r="T49">
         <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>337</v>
+      </c>
+      <c r="V49" t="s">
+        <v>355</v>
+      </c>
+      <c r="W49" t="s">
+        <v>369</v>
+      </c>
+      <c r="X49" t="s">
+        <v>377</v>
       </c>
       <c r="Y49" t="b">
         <v>1</v>
@@ -4517,11 +4373,8 @@
       <c r="B50" t="s">
         <v>75</v>
       </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
         <v>200</v>
@@ -4533,10 +4386,10 @@
         <v>200</v>
       </c>
       <c r="K50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4561,18 +4414,6 @@
       </c>
       <c r="T50">
         <v>1</v>
-      </c>
-      <c r="U50" t="s">
-        <v>344</v>
-      </c>
-      <c r="V50" t="s">
-        <v>363</v>
-      </c>
-      <c r="W50" t="s">
-        <v>380</v>
-      </c>
-      <c r="X50" t="s">
-        <v>386</v>
       </c>
       <c r="Y50" t="b">
         <v>1</v>
@@ -4585,8 +4426,11 @@
       <c r="B51" t="s">
         <v>76</v>
       </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
         <v>201</v>
@@ -4598,10 +4442,10 @@
         <v>201</v>
       </c>
       <c r="K51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4626,6 +4470,18 @@
       </c>
       <c r="T51">
         <v>1</v>
+      </c>
+      <c r="U51" t="s">
+        <v>338</v>
+      </c>
+      <c r="V51" t="s">
+        <v>356</v>
+      </c>
+      <c r="W51" t="s">
+        <v>370</v>
+      </c>
+      <c r="X51" t="s">
+        <v>357</v>
       </c>
       <c r="Y51" t="b">
         <v>1</v>
@@ -4633,13 +4489,13 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
         <v>202</v>
@@ -4651,10 +4507,10 @@
         <v>202</v>
       </c>
       <c r="K52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4691,6 +4547,9 @@
       <c r="B53" t="s">
         <v>78</v>
       </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
       <c r="D53" t="s">
         <v>146</v>
       </c>
@@ -4704,10 +4563,10 @@
         <v>203</v>
       </c>
       <c r="K53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L53" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -4732,6 +4591,18 @@
       </c>
       <c r="T53">
         <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>339</v>
+      </c>
+      <c r="V53" t="s">
+        <v>357</v>
+      </c>
+      <c r="W53" t="s">
+        <v>371</v>
+      </c>
+      <c r="X53" t="s">
+        <v>357</v>
       </c>
       <c r="Y53" t="b">
         <v>1</v>
@@ -4739,7 +4610,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
         <v>79</v>
@@ -4757,10 +4628,10 @@
         <v>204</v>
       </c>
       <c r="K54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L54" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4792,7 +4663,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -4810,10 +4681,10 @@
         <v>205</v>
       </c>
       <c r="K55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L55" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -4845,7 +4716,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
@@ -4863,10 +4734,10 @@
         <v>271</v>
       </c>
       <c r="K56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L56" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4898,7 +4769,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
@@ -4916,10 +4787,10 @@
         <v>272</v>
       </c>
       <c r="K57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4951,7 +4822,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -4972,10 +4843,10 @@
         <v>273</v>
       </c>
       <c r="K58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M58">
         <v>0</v>
